--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_S2We.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_S2We.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/passenger data/done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5A533E-724F-014D-9D99-6E2CDB8733CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA29E66-F620-8446-BA2A-1F1C842AFD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="84">
   <si>
     <t>Name:</t>
   </si>
@@ -281,7 +281,10 @@
     <t>Table A1</t>
   </si>
   <si>
-    <t>e-bike speed limit</t>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -735,7 +748,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,7 +778,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45030</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1005,14 +1018,19 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>20.9</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -11175,7 +11193,12 @@
   </sheetData>
   <autoFilter ref="A5:L813" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A6:L150 A151:F164 A165:L365 A366:F366 H366:L366 A367:L397">
+  <conditionalFormatting sqref="A6:L12 A151:F164 A165:L365 A366:F366 H366:L366 A367:L397 A14:L150 A13:I13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TODO"</formula>
     </cfRule>
